--- a/LC.xlsx
+++ b/LC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinhui/Library/CloudStorage/GoogleDrive-xinhui.gu@gmail.com/My Drive/Python/Algorithm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinhui/Library/CloudStorage/GoogleDrive-xinhui.gu@gmail.com/My Drive/Python/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE69E8B5-B561-D445-9F49-F67B9BE60D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B772C5E4-DE09-8E47-A258-3E946083D86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20680" activeTab="4" xr2:uid="{9D75E5DC-0D7C-F540-919F-31766D3F9B19}"/>
   </bookViews>
@@ -153,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -162,6 +162,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1644,7 +1645,7 @@
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1658,7 +1659,13 @@
         <v>12</v>
       </c>
       <c r="B1">
-        <v>46</v>
+        <v>22</v>
+      </c>
+      <c r="C1" s="1">
+        <v>45297</v>
+      </c>
+      <c r="D1" s="1">
+        <v>45355</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1676,16 +1683,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1">
-        <v>45284</v>
+        <v>45283</v>
       </c>
       <c r="D2" s="1">
-        <v>45312</v>
-      </c>
-      <c r="E2" s="1">
-        <v>45353</v>
+        <v>45354</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1727,13 +1731,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B4">
-        <v>39</v>
-      </c>
-      <c r="C4" s="1">
-        <v>45283</v>
-      </c>
-      <c r="D4" s="1">
-        <v>45354</v>
+        <v>46</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1751,13 +1749,16 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1">
-        <v>45297</v>
+        <v>45284</v>
       </c>
       <c r="D5" s="1">
-        <v>45355</v>
+        <v>45312</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45353</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1774,7 +1775,12 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F6" s="1"/>
+      <c r="B6">
+        <v>77</v>
+      </c>
+      <c r="F6" s="6">
+        <v>45486</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1789,7 +1795,12 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F7" s="1"/>
+      <c r="B7">
+        <v>216</v>
+      </c>
+      <c r="F7" s="1">
+        <v>45487</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2224,6 +2235,9 @@
       <c r="R35" s="1"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:E5">
+    <sortCondition ref="B1:B5"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2267,15 +2281,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04293FC-3429-794A-BB94-1817AFD250F6}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="5" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -2391,24 +2406,17 @@
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17">
+        <v>104</v>
+      </c>
+      <c r="G17" s="4">
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18">
         <v>106</v>
-      </c>
-      <c r="C17" s="4">
-        <v>45281</v>
-      </c>
-      <c r="D17" s="4">
-        <v>45316</v>
-      </c>
-      <c r="E17" s="4">
-        <v>45360</v>
-      </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <v>110</v>
       </c>
       <c r="C18" s="4">
         <v>45281</v>
@@ -2421,238 +2429,263 @@
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19">
+        <v>110</v>
+      </c>
+      <c r="C19" s="4">
+        <v>45281</v>
+      </c>
+      <c r="D19" s="4">
+        <v>45316</v>
+      </c>
+      <c r="E19" s="4">
+        <v>45360</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20">
         <v>124</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C20" s="4">
         <v>45647</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D20" s="4">
         <v>45360</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21">
         <v>199</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C21" s="4">
         <v>45293</v>
-      </c>
-      <c r="D20" s="4">
-        <v>45316</v>
-      </c>
-      <c r="E20" s="4">
-        <v>45330</v>
-      </c>
-      <c r="F20" s="4">
-        <v>45349</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21">
-        <v>222</v>
-      </c>
-      <c r="C21" s="4">
-        <v>45280</v>
       </c>
       <c r="D21" s="4">
         <v>45316</v>
       </c>
       <c r="E21" s="4">
+        <v>45330</v>
+      </c>
+      <c r="F21" s="4">
+        <v>45349</v>
+      </c>
+      <c r="G21" s="4">
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>222</v>
+      </c>
+      <c r="C22" s="4">
+        <v>45280</v>
+      </c>
+      <c r="D22" s="4">
+        <v>45316</v>
+      </c>
+      <c r="E22" s="4">
         <v>45360</v>
       </c>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="3">
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>226</v>
+      </c>
+      <c r="G23" s="4">
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="3">
         <v>236</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C24" s="4">
         <v>45282</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D24" s="4">
         <v>45310</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E24" s="4">
         <v>45328</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F24" s="4">
         <v>45358</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25">
         <v>257</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C25" s="4">
         <v>45281</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D25" s="4">
         <v>45316</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E25" s="4">
         <v>45360</v>
       </c>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="3">
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="3">
         <v>285</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C26" s="4">
         <v>45648</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25">
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27">
         <v>298</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C27" s="4">
         <v>45304</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D27" s="4">
         <v>45360</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26">
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28">
         <v>513</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C28" s="4">
         <v>45281</v>
-      </c>
-      <c r="D26" s="4">
-        <v>45316</v>
-      </c>
-      <c r="E26" s="4">
-        <v>45360</v>
-      </c>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <v>543</v>
-      </c>
-      <c r="C27" s="4">
-        <v>45281</v>
-      </c>
-      <c r="D27" s="4">
-        <v>45323</v>
-      </c>
-      <c r="E27" s="4">
-        <v>45359</v>
-      </c>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28">
-        <v>559</v>
-      </c>
-      <c r="C28" s="4">
-        <v>45280</v>
       </c>
       <c r="D28" s="4">
         <v>45316</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="4">
+        <v>45360</v>
+      </c>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29">
-        <v>654</v>
+        <v>543</v>
       </c>
       <c r="C29" s="4">
         <v>45281</v>
       </c>
       <c r="D29" s="4">
-        <v>45317</v>
+        <v>45323</v>
       </c>
       <c r="E29" s="4">
-        <v>45360</v>
+        <v>45359</v>
       </c>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30">
-        <v>1650</v>
-      </c>
-      <c r="C30" s="4"/>
+        <v>559</v>
+      </c>
+      <c r="C30" s="4">
+        <v>45280</v>
+      </c>
       <c r="D30" s="4">
-        <v>45358</v>
+        <v>45316</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31">
+        <v>637</v>
+      </c>
+      <c r="G31" s="4">
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>654</v>
+      </c>
+      <c r="C32" s="4">
+        <v>45281</v>
+      </c>
+      <c r="D32" s="4">
+        <v>45317</v>
+      </c>
+      <c r="E32" s="4">
+        <v>45360</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>1650</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4">
+        <v>45358</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34">
         <v>2265</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C34" s="4">
         <v>45349</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D34" s="4">
         <v>45359</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.2">
@@ -2701,7 +2734,7 @@
   <dimension ref="A1:K128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2932,15 +2965,13 @@
         <v>15</v>
       </c>
       <c r="B20">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1">
         <v>45319</v>
       </c>
-      <c r="E20" s="1">
-        <v>45360</v>
-      </c>
+      <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -2950,13 +2981,15 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B21">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1">
-        <v>45319</v>
-      </c>
-      <c r="E21" s="1"/>
+        <v>45336</v>
+      </c>
+      <c r="E21" s="1">
+        <v>45360</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -2966,11 +2999,11 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B22">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1">
-        <v>45336</v>
+        <v>45319</v>
       </c>
       <c r="E22" s="1">
         <v>45360</v>
@@ -3016,16 +3049,11 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B25">
-        <v>827</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1">
-        <v>45319</v>
-      </c>
-      <c r="E25" s="1">
-        <v>45360</v>
-      </c>
-      <c r="F25" s="1"/>
+        <v>797</v>
+      </c>
+      <c r="F25" s="1">
+        <v>45487</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -3033,9 +3061,16 @@
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>827</v>
+      </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="D26" s="1">
+        <v>45319</v>
+      </c>
+      <c r="E26" s="1">
+        <v>45360</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -4166,21 +4201,24 @@
       <c r="K128" s="1"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B20:F25">
+    <sortCondition ref="B20:B25"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CA07D9-ACA0-FD4B-BE85-1AFF825C8634}">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -4194,163 +4232,307 @@
       <c r="F1" s="1">
         <v>45360</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C2">
+        <v>455</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1">
+        <v>45487</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C3">
         <v>670</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
         <v>45292</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
